--- a/va_facility_data_2025-02-20/Sebring VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sebring%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sebring VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sebring%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4dd1305c6be54654ae4263eb5208620a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4887293bf3f34452ae38502eb48d1cf3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb36bc1284aaf4ee39f54b57424e8c337"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5a1261adbeb34c5789803d2fb4148a3d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R35849b881e224dac8b02a3ad4f971ea1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5138ae5219a64ab6a31a02b732d2564f"/>
   </x:sheets>
 </x:workbook>
 </file>
